--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H608"/>
+  <dimension ref="A1:H619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17136,9 +17136,7 @@
           <t>2024-09-24 22:05:25+00:00</t>
         </is>
       </c>
-      <c r="B608" t="n">
-        <v>487.8166666666667</v>
-      </c>
+      <c r="B608" t="inlineStr"/>
       <c r="C608" t="inlineStr"/>
       <c r="D608" t="n">
         <v>384.1128571428572</v>
@@ -17155,6 +17153,334 @@
       <c r="H608" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>368.0333333333333</v>
+      </c>
+      <c r="C609" t="n">
+        <v>361.0635294117647</v>
+      </c>
+      <c r="D609" t="n">
+        <v>368.3857142857143</v>
+      </c>
+      <c r="E609" t="n">
+        <v>381.3357142857143</v>
+      </c>
+      <c r="F609" t="n">
+        <v>391.34</v>
+      </c>
+      <c r="G609" t="n">
+        <v>366.9133333333333</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>358.82</v>
+      </c>
+      <c r="C610" t="n">
+        <v>357.36</v>
+      </c>
+      <c r="D610" t="n">
+        <v>364.4114285714285</v>
+      </c>
+      <c r="E610" t="n">
+        <v>371.9714285714285</v>
+      </c>
+      <c r="F610" t="n">
+        <v>381.5</v>
+      </c>
+      <c r="G610" t="n">
+        <v>352.62</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>366.05</v>
+      </c>
+      <c r="C611" t="n">
+        <v>351.0141176470589</v>
+      </c>
+      <c r="D611" t="n">
+        <v>366.5871428571429</v>
+      </c>
+      <c r="E611" t="n">
+        <v>380.4471428571428</v>
+      </c>
+      <c r="F611" t="n">
+        <v>383.17</v>
+      </c>
+      <c r="G611" t="n">
+        <v>364.04</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>356.83</v>
+      </c>
+      <c r="C612" t="n">
+        <v>354.34</v>
+      </c>
+      <c r="D612" t="n">
+        <v>377.9057142857143</v>
+      </c>
+      <c r="E612" t="n">
+        <v>376.0157142857143</v>
+      </c>
+      <c r="F612" t="n">
+        <v>388.47</v>
+      </c>
+      <c r="G612" t="n">
+        <v>364.71</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>365</v>
+      </c>
+      <c r="C613" t="n">
+        <v>351.1811764705882</v>
+      </c>
+      <c r="D613" t="n">
+        <v>371.9642857142857</v>
+      </c>
+      <c r="E613" t="n">
+        <v>375.9742857142857</v>
+      </c>
+      <c r="F613" t="n">
+        <v>383.35</v>
+      </c>
+      <c r="G613" t="n">
+        <v>367.85</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>375.7466666666666</v>
+      </c>
+      <c r="C614" t="n">
+        <v>365.4911764705882</v>
+      </c>
+      <c r="D614" t="n">
+        <v>382.3571428571428</v>
+      </c>
+      <c r="E614" t="n">
+        <v>383.0171428571429</v>
+      </c>
+      <c r="F614" t="n">
+        <v>385.9</v>
+      </c>
+      <c r="G614" t="n">
+        <v>377.4066666666667</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>383.0333333333333</v>
+      </c>
+      <c r="C615" t="n">
+        <v>375.5076470588235</v>
+      </c>
+      <c r="D615" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="E615" t="n">
+        <v>395.24</v>
+      </c>
+      <c r="F615" t="n">
+        <v>403.23</v>
+      </c>
+      <c r="G615" t="n">
+        <v>380.3533333333333</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>349.0733333333333</v>
+      </c>
+      <c r="C616" t="n">
+        <v>345.9270588235294</v>
+      </c>
+      <c r="D616" t="n">
+        <v>357.62</v>
+      </c>
+      <c r="E616" t="n">
+        <v>356.16</v>
+      </c>
+      <c r="F616" t="n">
+        <v>374.72</v>
+      </c>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>369.8766666666667</v>
+      </c>
+      <c r="C617" t="n">
+        <v>352.7858823529411</v>
+      </c>
+      <c r="D617" t="n">
+        <v>368.1085714285715</v>
+      </c>
+      <c r="E617" t="n">
+        <v>369.5985714285715</v>
+      </c>
+      <c r="F617" t="n">
+        <v>385.21</v>
+      </c>
+      <c r="G617" t="n">
+        <v>364.8166666666667</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>354.42</v>
+      </c>
+      <c r="C618" t="n">
+        <v>354.6147058823529</v>
+      </c>
+      <c r="D618" t="n">
+        <v>366.1771428571428</v>
+      </c>
+      <c r="E618" t="n">
+        <v>377.3571428571428</v>
+      </c>
+      <c r="F618" t="n">
+        <v>384.98</v>
+      </c>
+      <c r="G618" t="n">
+        <v>363.17</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>364.62</v>
+      </c>
+      <c r="C619" t="n">
+        <v>355.8811764705882</v>
+      </c>
+      <c r="D619" t="n">
+        <v>365.9885714285714</v>
+      </c>
+      <c r="E619" t="n">
+        <v>374.2585714285714</v>
+      </c>
+      <c r="F619" t="n">
+        <v>386.36</v>
+      </c>
+      <c r="G619" t="n">
+        <v>362.71</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17169,7 +17495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B635"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23527,6 +23853,116 @@
       </c>
       <c r="B635" t="n">
         <v>0.22</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -23695,28 +24131,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1671588520028818</v>
+        <v>0.1251515157190126</v>
       </c>
       <c r="J2" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K2" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01130585572659482</v>
+        <v>0.008613304810067057</v>
       </c>
       <c r="M2" t="n">
-        <v>8.167073659028697</v>
+        <v>7.908155798579672</v>
       </c>
       <c r="N2" t="n">
-        <v>134.5874514252287</v>
+        <v>101.5797846304113</v>
       </c>
       <c r="O2" t="n">
-        <v>11.60118319074519</v>
+        <v>10.07867970670818</v>
       </c>
       <c r="P2" t="n">
-        <v>359.1828674963112</v>
+        <v>359.5721228398842</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23772,28 +24208,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2430516984631646</v>
+        <v>0.2359695923345033</v>
       </c>
       <c r="J3" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K3" t="n">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03082122951973243</v>
+        <v>0.03001091959603763</v>
       </c>
       <c r="M3" t="n">
-        <v>7.813599387461256</v>
+        <v>7.780554244891532</v>
       </c>
       <c r="N3" t="n">
-        <v>102.3033268163203</v>
+        <v>101.3923576081183</v>
       </c>
       <c r="O3" t="n">
-        <v>10.11451070572968</v>
+        <v>10.06937722046991</v>
       </c>
       <c r="P3" t="n">
-        <v>352.3499052161866</v>
+        <v>352.4176353018424</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23849,28 +24285,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3077089618705526</v>
+        <v>0.3015044289724987</v>
       </c>
       <c r="J4" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05324031511298388</v>
+        <v>0.05279019272018604</v>
       </c>
       <c r="M4" t="n">
-        <v>7.669974202041496</v>
+        <v>7.633869727963376</v>
       </c>
       <c r="N4" t="n">
-        <v>94.69980626399126</v>
+        <v>93.71619527642669</v>
       </c>
       <c r="O4" t="n">
-        <v>9.731382546380102</v>
+        <v>9.680712539706294</v>
       </c>
       <c r="P4" t="n">
-        <v>363.6015856712636</v>
+        <v>363.6603641042699</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23926,28 +24362,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2014759795337431</v>
+        <v>0.2007920158012406</v>
       </c>
       <c r="J5" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K5" t="n">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02014929148357192</v>
+        <v>0.02057292736897698</v>
       </c>
       <c r="M5" t="n">
-        <v>8.057688541852903</v>
+        <v>8.020171158259878</v>
       </c>
       <c r="N5" t="n">
-        <v>109.4154652271047</v>
+        <v>108.8447625343734</v>
       </c>
       <c r="O5" t="n">
-        <v>10.46018476065814</v>
+        <v>10.43286933371512</v>
       </c>
       <c r="P5" t="n">
-        <v>371.531020269977</v>
+        <v>371.5378057405514</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24003,28 +24439,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2200359297096169</v>
+        <v>0.2194893925068324</v>
       </c>
       <c r="J6" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K6" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03117818162974562</v>
+        <v>0.03202864741988332</v>
       </c>
       <c r="M6" t="n">
-        <v>6.879445221292943</v>
+        <v>6.827266745359213</v>
       </c>
       <c r="N6" t="n">
-        <v>82.06464733375689</v>
+        <v>81.25080679758118</v>
       </c>
       <c r="O6" t="n">
-        <v>9.058953986733616</v>
+        <v>9.013922941626536</v>
       </c>
       <c r="P6" t="n">
-        <v>380.7502237383867</v>
+        <v>380.7555681488549</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24080,28 +24516,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1372857315302675</v>
+        <v>0.1467530983938599</v>
       </c>
       <c r="J7" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K7" t="n">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01029706677899567</v>
+        <v>0.0121050455319085</v>
       </c>
       <c r="M7" t="n">
-        <v>7.652555121390452</v>
+        <v>7.59855783519602</v>
       </c>
       <c r="N7" t="n">
-        <v>98.64761046866832</v>
+        <v>97.8596182376106</v>
       </c>
       <c r="O7" t="n">
-        <v>9.932150344646839</v>
+        <v>9.892402045894142</v>
       </c>
       <c r="P7" t="n">
-        <v>360.5369864706226</v>
+        <v>360.4468775194851</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24138,7 +24574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H608"/>
+  <dimension ref="A1:H619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46590,11 +47026,7 @@
           <t>2024-09-24 22:05:25+00:00</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>-36.30970838737754,174.79637816471106</t>
-        </is>
-      </c>
+      <c r="B608" t="inlineStr"/>
       <c r="C608" t="inlineStr"/>
       <c r="D608" t="inlineStr">
         <is>
@@ -46619,6 +47051,464 @@
       <c r="H608" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-36.309746476859274,174.795045144295</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-36.31047239013749,174.79498842626188</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-36.311189400371084,174.79510527475296</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.31187868922755,174.79534785367946</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-36.31252509118845,174.79567370609254</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-36.31326936467332,174.79571102841396</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-36.309749405960304,174.79494261274348</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-36.31047384644785,174.79494722436735</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.311192598400005,174.79506119488943</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.311895253971294,174.79524560280626</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-36.31255214165581,174.79556935040057</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-36.31331362803185,174.7955615486604</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.30974710740762,174.7950230725618</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.31047634175737,174.79487662619877</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.31119084764785,174.79508532631777</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.31188026104981,174.79533815115775</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-36.31254755077995,174.79558706117882</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-36.31327826277917,174.7956809790933</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-36.30975003860917,174.79492046681713</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-36.310475033968714,174.7949136267599</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-36.31118173975012,174.79521086359625</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.311888099933135,174.79528976333407</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-36.31253298091732,174.79564326902351</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-36.3132761879315,174.7956879859541</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.309747441225674,174.7950113875264</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.310476276067526,174.79487848473423</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.31118652075178,174.79514496564008</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.31188817321726,174.7952893109656</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-36.312547055954845,174.79558897012484</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-36.31326646401308,174.79572082407265</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.309744024570435,174.79513098292952</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.31047064906932,174.7950376839878</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.31117815771127,174.79526023556193</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.31187571489294,174.79536621359483</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-36.31254004592942,174.7956160135242</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-36.31323686897577,174.79582076763592</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-36.309741707874586,174.79521207335225</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-36.31046671025292,174.79514911755655</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-36.31118065801331,174.79522577342343</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.31185409339307,174.795499677811</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-36.312492405087994,174.79579980245273</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-36.31322774373677,174.79585158384256</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.309752504523004,174.79483414592332</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.31047834204592,174.79482003248253</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.31119806329047,174.7949858693327</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.3119232230482,174.79507295393336</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-36.31257078003565,174.79549744673955</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-36.30974589081658,174.79506565802296</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-36.310475645073375,174.79489633714525</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.31118962338298,174.79510220088773</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.31189945137016,174.79521969300473</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-36.31254194276041,174.795608695899</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-36.313275857607444,174.79568910147418</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.30975080477642,174.7948936468755</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-36.310474925949585,174.7949166828727</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.31119117756671,174.79508077889835</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.311885727043034,174.79530441071313</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-36.31254257503731,174.79560625669052</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-36.313280956983796,174.7956718806317</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-36.30974756203573,174.7950071586564</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-36.31047442795028,174.79493077240315</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-36.31119132930635,174.79507868740228</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-36.31189120818907,174.79527057666994</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-36.31253878137517,174.7956208919408</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-36.313282381505495,174.7956670699506</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -23976,7 +23976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24067,35 +24067,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24154,27 +24159,28 @@
       <c r="P2" t="n">
         <v>359.5721228398842</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.79094943765975 -36.30986341366037, 174.8012171984467 -36.30956999255736)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7909494376597</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.30986341366037</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8012171984467</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.30956999255736</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7960833180532</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.30971670310886</v>
       </c>
     </row>
@@ -24231,27 +24237,28 @@
       <c r="P3" t="n">
         <v>352.4176353018424</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.79097157179123 -36.31061430173548, 174.80123599388685 -36.31025140058959)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7909715717912</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.31061430173548</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8012359938868</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.31025140058959</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7961037828391</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.31043285116253</v>
       </c>
     </row>
@@ -24308,27 +24315,28 @@
       <c r="P4" t="n">
         <v>363.6603641042699</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.79101939225365 -36.311485764356604, 174.801252529969 -36.31074325078746)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7910193922536</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.3114857643566</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.801252529969</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.31074325078746</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7961359611113</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.31111450757203</v>
       </c>
     </row>
@@ -24385,27 +24393,28 @@
       <c r="P5" t="n">
         <v>371.5378057405514</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.7911839199975 -36.31255317466933, 174.80125783816385 -36.31092110619826)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7911839199975</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.31255317466933</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8012578381638</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.31092110619826</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7962208790807</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.31173714043379</v>
       </c>
     </row>
@@ -24462,27 +24471,28 @@
       <c r="P6" t="n">
         <v>380.7555681488549</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.79152338798016 -36.313600828256625, 174.80130678769552 -36.3110647554395)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7915233879802</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.31360082825663</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8013067876955</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.3110647554395</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7964150878378</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.31233279184806</v>
       </c>
     </row>
@@ -24539,27 +24549,28 @@
       <c r="P7" t="n">
         <v>360.4468775194851</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.79187379115476 -36.314405557993524, 174.80152093437084 -36.31154877622812)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7918737911548</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.31440555799352</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8015209343708</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.31154877622812</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7966973627628</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.31297716711082</v>
       </c>
     </row>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H619"/>
+  <dimension ref="A1:H623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17481,6 +17481,126 @@
       <c r="H619" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>367.5933333333333</v>
+      </c>
+      <c r="C620" t="n">
+        <v>352.0552941176471</v>
+      </c>
+      <c r="D620" t="n">
+        <v>367.83</v>
+      </c>
+      <c r="E620" t="n">
+        <v>374.66</v>
+      </c>
+      <c r="F620" t="n">
+        <v>382.64</v>
+      </c>
+      <c r="G620" t="n">
+        <v>365.4433333333333</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>366.1366666666667</v>
+      </c>
+      <c r="C621" t="n">
+        <v>354.0188235294117</v>
+      </c>
+      <c r="D621" t="n">
+        <v>367.5814285714285</v>
+      </c>
+      <c r="E621" t="n">
+        <v>377.5314285714285</v>
+      </c>
+      <c r="F621" t="n">
+        <v>387.34</v>
+      </c>
+      <c r="G621" t="n">
+        <v>365.3166666666667</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>360.49</v>
+      </c>
+      <c r="C622" t="n">
+        <v>358.9988235294118</v>
+      </c>
+      <c r="D622" t="n">
+        <v>366.94</v>
+      </c>
+      <c r="E622" t="n">
+        <v>376.72</v>
+      </c>
+      <c r="F622" t="n">
+        <v>391.04</v>
+      </c>
+      <c r="G622" t="n">
+        <v>366.31</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>362.5933333333333</v>
+      </c>
+      <c r="C623" t="n">
+        <v>352.9376470588236</v>
+      </c>
+      <c r="D623" t="n">
+        <v>368.4742857142857</v>
+      </c>
+      <c r="E623" t="n">
+        <v>374.6242857142857</v>
+      </c>
+      <c r="F623" t="n">
+        <v>381.27</v>
+      </c>
+      <c r="G623" t="n">
+        <v>361.9633333333333</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B646"/>
+  <dimension ref="A1:B650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23963,6 +24083,46 @@
       </c>
       <c r="B646" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -24136,28 +24296,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1251515157190126</v>
+        <v>0.1273668606079593</v>
       </c>
       <c r="J2" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K2" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008613304810067057</v>
+        <v>0.00906215283894074</v>
       </c>
       <c r="M2" t="n">
-        <v>7.908155798579672</v>
+        <v>7.864885149022556</v>
       </c>
       <c r="N2" t="n">
-        <v>101.5797846304113</v>
+        <v>100.8269724076603</v>
       </c>
       <c r="O2" t="n">
-        <v>10.07867970670818</v>
+        <v>10.04126348661663</v>
       </c>
       <c r="P2" t="n">
-        <v>359.5721228398842</v>
+        <v>359.5510976931113</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24214,28 +24374,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2359695923345033</v>
+        <v>0.2299860112946671</v>
       </c>
       <c r="J3" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K3" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03001091959603763</v>
+        <v>0.02895261650511183</v>
       </c>
       <c r="M3" t="n">
-        <v>7.780554244891532</v>
+        <v>7.748943270904763</v>
       </c>
       <c r="N3" t="n">
-        <v>101.3923576081183</v>
+        <v>100.7449333681281</v>
       </c>
       <c r="O3" t="n">
-        <v>10.06937722046991</v>
+        <v>10.03717755985855</v>
       </c>
       <c r="P3" t="n">
-        <v>352.4176353018424</v>
+        <v>352.4753112131353</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24292,28 +24452,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3015044289724987</v>
+        <v>0.2961243405444918</v>
       </c>
       <c r="J4" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K4" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05279019272018604</v>
+        <v>0.05172477996091451</v>
       </c>
       <c r="M4" t="n">
-        <v>7.633869727963376</v>
+        <v>7.597896093200862</v>
       </c>
       <c r="N4" t="n">
-        <v>93.71619527642669</v>
+        <v>93.0628670234498</v>
       </c>
       <c r="O4" t="n">
-        <v>9.680712539706294</v>
+        <v>9.646909713657001</v>
       </c>
       <c r="P4" t="n">
-        <v>363.6603641042699</v>
+        <v>363.7117253005068</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24370,28 +24530,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2007920158012406</v>
+        <v>0.1996205765770417</v>
       </c>
       <c r="J5" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K5" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02057292736897698</v>
+        <v>0.02065789382421424</v>
       </c>
       <c r="M5" t="n">
-        <v>8.020171158259878</v>
+        <v>7.965816060263439</v>
       </c>
       <c r="N5" t="n">
-        <v>108.8447625343734</v>
+        <v>107.9884256778144</v>
       </c>
       <c r="O5" t="n">
-        <v>10.43286933371512</v>
+        <v>10.39174796065678</v>
       </c>
       <c r="P5" t="n">
-        <v>371.5378057405514</v>
+        <v>371.5490077509709</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24448,28 +24608,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2194893925068324</v>
+        <v>0.2183019637989168</v>
       </c>
       <c r="J6" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K6" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03202864741988332</v>
+        <v>0.03214031416633611</v>
       </c>
       <c r="M6" t="n">
-        <v>6.827266745359213</v>
+        <v>6.801847693696782</v>
       </c>
       <c r="N6" t="n">
-        <v>81.25080679758118</v>
+        <v>80.73032325630378</v>
       </c>
       <c r="O6" t="n">
-        <v>9.013922941626536</v>
+        <v>8.985005467794874</v>
       </c>
       <c r="P6" t="n">
-        <v>380.7555681488549</v>
+        <v>380.7670888283279</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24526,28 +24686,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1467530983938599</v>
+        <v>0.1476069619902328</v>
       </c>
       <c r="J7" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K7" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0121050455319085</v>
+        <v>0.01244543996294312</v>
       </c>
       <c r="M7" t="n">
-        <v>7.59855783519602</v>
+        <v>7.550529622249644</v>
       </c>
       <c r="N7" t="n">
-        <v>97.8596182376106</v>
+        <v>97.09524948588233</v>
       </c>
       <c r="O7" t="n">
-        <v>9.892402045894142</v>
+        <v>9.853692175315928</v>
       </c>
       <c r="P7" t="n">
-        <v>360.4468775194851</v>
+        <v>360.4387315117413</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24585,7 +24745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H619"/>
+  <dimension ref="A1:H623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47523,6 +47683,174 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-36.30974661674598,174.79504024770884</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-36.310475932351835,174.79488820932474</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-36.31118984754433,174.79509911117776</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-36.311890498091834,174.7952749599649</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-36.312549007764765,174.79558144039316</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-36.313273916953456,174.7956956551545</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-36.30974707985433,174.79502403704092</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-36.31047516026079,174.79491005366017</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-36.311190047565155,174.79509635420578</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-36.31188541874408,174.79530631378043</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-36.312536087324176,174.7956312850887</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-36.31327430921334,174.79569433047448</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-36.30974887504076,174.79496119751542</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-36.31047320202763,174.7949654563368</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-36.311190563710575,174.79508923995047</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-36.31188685410289,174.79529745359815</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>-36.312525915899165,174.79567052451767</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-36.313271233069706,174.79570471875442</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-36.30974820635356,174.79498460468272</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-36.310475585397086,174.79489802553306</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>-36.31118932909923,174.79510625712228</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>-36.31189056126776,174.79527456999205</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>-36.312552773931934,174.79556691119143</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>-36.31328469377222,174.79565926130843</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H623"/>
+  <dimension ref="A1:H624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17601,6 +17601,36 @@
       <c r="H623" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>363.7533333333333</v>
+      </c>
+      <c r="C624" t="n">
+        <v>351.7852941176471</v>
+      </c>
+      <c r="D624" t="n">
+        <v>366.88</v>
+      </c>
+      <c r="E624" t="n">
+        <v>376.89</v>
+      </c>
+      <c r="F624" t="n">
+        <v>389.56</v>
+      </c>
+      <c r="G624" t="n">
+        <v>366.9633333333333</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17615,7 +17645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B650"/>
+  <dimension ref="A1:B651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24123,6 +24153,16 @@
       </c>
       <c r="B650" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -24296,28 +24336,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1273668606079593</v>
+        <v>0.1277295522995809</v>
       </c>
       <c r="J2" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K2" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00906215283894074</v>
+        <v>0.009152104370906633</v>
       </c>
       <c r="M2" t="n">
-        <v>7.864885149022556</v>
+        <v>7.850643597936877</v>
       </c>
       <c r="N2" t="n">
-        <v>100.8269724076603</v>
+        <v>100.6220995364643</v>
       </c>
       <c r="O2" t="n">
-        <v>10.04126348661663</v>
+        <v>10.0310567507349</v>
       </c>
       <c r="P2" t="n">
-        <v>359.5510976931113</v>
+        <v>359.54761394251</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24374,28 +24414,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2299860112946671</v>
+        <v>0.2274515015552366</v>
       </c>
       <c r="J3" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K3" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02895261650511183</v>
+        <v>0.02842496477985723</v>
       </c>
       <c r="M3" t="n">
-        <v>7.748943270904763</v>
+        <v>7.745529075770137</v>
       </c>
       <c r="N3" t="n">
-        <v>100.7449333681281</v>
+        <v>100.6276827021905</v>
       </c>
       <c r="O3" t="n">
-        <v>10.03717755985855</v>
+        <v>10.03133504087021</v>
       </c>
       <c r="P3" t="n">
-        <v>352.4753112131353</v>
+        <v>352.4999759456674</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24452,28 +24492,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2961243405444918</v>
+        <v>0.2944674330784003</v>
       </c>
       <c r="J4" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K4" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05172477996091451</v>
+        <v>0.05134951955250611</v>
       </c>
       <c r="M4" t="n">
-        <v>7.597896093200862</v>
+        <v>7.59035334737118</v>
       </c>
       <c r="N4" t="n">
-        <v>93.0628670234498</v>
+        <v>92.91407420762515</v>
       </c>
       <c r="O4" t="n">
-        <v>9.646909713657001</v>
+        <v>9.639194686675083</v>
       </c>
       <c r="P4" t="n">
-        <v>363.7117253005068</v>
+        <v>363.7277051359612</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24530,28 +24570,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1996205765770417</v>
+        <v>0.1996973169211822</v>
       </c>
       <c r="J5" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K5" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02065789382421424</v>
+        <v>0.02075614758709499</v>
       </c>
       <c r="M5" t="n">
-        <v>7.965816060263439</v>
+        <v>7.950252916818099</v>
       </c>
       <c r="N5" t="n">
-        <v>107.9884256778144</v>
+        <v>107.7720985733578</v>
       </c>
       <c r="O5" t="n">
-        <v>10.39174796065678</v>
+        <v>10.38133414226504</v>
       </c>
       <c r="P5" t="n">
-        <v>371.5490077509709</v>
+        <v>371.5482675744541</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24608,28 +24648,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2183019637989168</v>
+        <v>0.2194978969047099</v>
       </c>
       <c r="J6" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K6" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03214031416633611</v>
+        <v>0.03260190206884039</v>
       </c>
       <c r="M6" t="n">
-        <v>6.801847693696782</v>
+        <v>6.794595578652065</v>
       </c>
       <c r="N6" t="n">
-        <v>80.73032325630378</v>
+        <v>80.5902993978783</v>
       </c>
       <c r="O6" t="n">
-        <v>8.985005467794874</v>
+        <v>8.977210000767403</v>
       </c>
       <c r="P6" t="n">
-        <v>380.7670888283279</v>
+        <v>380.7554221395419</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24686,28 +24726,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1476069619902328</v>
+        <v>0.1486659437858888</v>
       </c>
       <c r="J7" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K7" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01244543996294312</v>
+        <v>0.0126734243772233</v>
       </c>
       <c r="M7" t="n">
-        <v>7.550529622249644</v>
+        <v>7.540385082859899</v>
       </c>
       <c r="N7" t="n">
-        <v>97.09524948588233</v>
+        <v>96.91474348636255</v>
       </c>
       <c r="O7" t="n">
-        <v>9.853692175315928</v>
+        <v>9.844528606609996</v>
       </c>
       <c r="P7" t="n">
-        <v>360.4387315117413</v>
+        <v>360.4284712841096</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24745,7 +24785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H623"/>
+  <dimension ref="A1:H624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47851,6 +47891,48 @@
         </is>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-36.3097478375669,174.7949975138651</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-36.31047603851981,174.79488520556498</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-36.311190611991414,174.79508857447448</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-36.311886553385165,174.79529930986877</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-36.31252998447067,174.79565482874736</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-36.31326920983383,174.79571155131393</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H624"/>
+  <dimension ref="A1:H626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17631,6 +17631,66 @@
       <c r="H624" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>359.9433333333333</v>
+      </c>
+      <c r="C625" t="n">
+        <v>357.5935294117647</v>
+      </c>
+      <c r="D625" t="n">
+        <v>379.2728571428572</v>
+      </c>
+      <c r="E625" t="n">
+        <v>382.2328571428571</v>
+      </c>
+      <c r="F625" t="n">
+        <v>389.98</v>
+      </c>
+      <c r="G625" t="n">
+        <v>374.3233333333333</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>343.4566666666667</v>
+      </c>
+      <c r="C626" t="n">
+        <v>345.9011764705882</v>
+      </c>
+      <c r="D626" t="n">
+        <v>363.15</v>
+      </c>
+      <c r="E626" t="n">
+        <v>380.03</v>
+      </c>
+      <c r="F626" t="n">
+        <v>385.53</v>
+      </c>
+      <c r="G626" t="n">
+        <v>362.5866666666667</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B651"/>
+  <dimension ref="A1:B653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24163,6 +24223,26 @@
       </c>
       <c r="B651" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -24336,28 +24416,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1277295522995809</v>
+        <v>0.1190630498148831</v>
       </c>
       <c r="J2" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K2" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009152104370906633</v>
+        <v>0.007968282537960447</v>
       </c>
       <c r="M2" t="n">
-        <v>7.850643597936877</v>
+        <v>7.865098200150329</v>
       </c>
       <c r="N2" t="n">
-        <v>100.6220995364643</v>
+        <v>100.9889562892651</v>
       </c>
       <c r="O2" t="n">
-        <v>10.0310567507349</v>
+        <v>10.04932616095552</v>
       </c>
       <c r="P2" t="n">
-        <v>359.54761394251</v>
+        <v>359.6310390298897</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24414,28 +24494,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2274515015552366</v>
+        <v>0.222418794503077</v>
       </c>
       <c r="J3" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K3" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02842496477985723</v>
+        <v>0.02734835476959696</v>
       </c>
       <c r="M3" t="n">
-        <v>7.745529075770137</v>
+        <v>7.738700344960465</v>
       </c>
       <c r="N3" t="n">
-        <v>100.6276827021905</v>
+        <v>100.5331634957598</v>
       </c>
       <c r="O3" t="n">
-        <v>10.03133504087021</v>
+        <v>10.02662273628363</v>
       </c>
       <c r="P3" t="n">
-        <v>352.4999759456674</v>
+        <v>352.5490657065755</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24492,28 +24572,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2944674330784003</v>
+        <v>0.2943837493101333</v>
       </c>
       <c r="J4" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K4" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05134951955250611</v>
+        <v>0.05156935121685779</v>
       </c>
       <c r="M4" t="n">
-        <v>7.59035334737118</v>
+        <v>7.592213824559004</v>
       </c>
       <c r="N4" t="n">
-        <v>92.91407420762515</v>
+        <v>92.8014902204109</v>
       </c>
       <c r="O4" t="n">
-        <v>9.639194686675083</v>
+        <v>9.633353010266514</v>
       </c>
       <c r="P4" t="n">
-        <v>363.7277051359612</v>
+        <v>363.7285472950457</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24570,28 +24650,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1996973169211822</v>
+        <v>0.2030117013009124</v>
       </c>
       <c r="J5" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K5" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02075614758709499</v>
+        <v>0.0215904994818491</v>
       </c>
       <c r="M5" t="n">
-        <v>7.950252916818099</v>
+        <v>7.935716199182957</v>
       </c>
       <c r="N5" t="n">
-        <v>107.7720985733578</v>
+        <v>107.4243667360973</v>
       </c>
       <c r="O5" t="n">
-        <v>10.38133414226504</v>
+        <v>10.36457267503573</v>
       </c>
       <c r="P5" t="n">
-        <v>371.5482675744541</v>
+        <v>371.5162461087791</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24648,28 +24728,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2194978969047099</v>
+        <v>0.2204991090184957</v>
       </c>
       <c r="J6" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K6" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03260190206884039</v>
+        <v>0.03313719152867989</v>
       </c>
       <c r="M6" t="n">
-        <v>6.794595578652065</v>
+        <v>6.776521567160826</v>
       </c>
       <c r="N6" t="n">
-        <v>80.5902993978783</v>
+        <v>80.29898845381818</v>
       </c>
       <c r="O6" t="n">
-        <v>8.977210000767403</v>
+        <v>8.960970285288205</v>
       </c>
       <c r="P6" t="n">
-        <v>380.7554221395419</v>
+        <v>380.7456465816866</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24726,28 +24806,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1486659437858888</v>
+        <v>0.1518912850196479</v>
       </c>
       <c r="J7" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K7" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0126734243772233</v>
+        <v>0.01330413174415868</v>
       </c>
       <c r="M7" t="n">
-        <v>7.540385082859899</v>
+        <v>7.532365940666081</v>
       </c>
       <c r="N7" t="n">
-        <v>96.91474348636255</v>
+        <v>96.73407870343097</v>
       </c>
       <c r="O7" t="n">
-        <v>9.844528606609996</v>
+        <v>9.835348428166181</v>
       </c>
       <c r="P7" t="n">
-        <v>360.4284712841096</v>
+        <v>360.3971909033509</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24785,7 +24865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H624"/>
+  <dimension ref="A1:H626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27271,7 +27351,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-36.31119255586701,174.79506178114215</t>
+          <t>-36.311192555867,174.79506178114215</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -29662,7 +29742,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>-36.31187104995813,174.79539500917696</t>
+          <t>-36.31187104995812,174.79539500917696</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -32428,7 +32508,7 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-36.311885100336944,174.79530827924333</t>
+          <t>-36.31188510033694,174.79530827924333</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -36329,7 +36409,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-36.31119255586701,174.79506178114215</t>
+          <t>-36.311192555867,174.79506178114215</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -47933,6 +48013,90 @@
         </is>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.309749048835094,174.79495511387753</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.310473754619295,174.7949498223903</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.311180639620325,174.79522602693802</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.31187710224223,174.79535764979423</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-36.31252882987625,174.79565928295264</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-36.31324641743586,174.7957885221628</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.309754290072846,174.79477164024308</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.310478352223086,174.79481974454038</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.311193613443166,174.7950472040476</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.31188099894681,174.795333596276</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.31254106307074,174.79561208958032</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-36.313282763442444,174.79566578013026</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H626"/>
+  <dimension ref="A1:H628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17691,6 +17691,66 @@
       <c r="H626" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>342.17</v>
+      </c>
+      <c r="C627" t="n">
+        <v>344.5658823529412</v>
+      </c>
+      <c r="D627" t="n">
+        <v>359.1028571428571</v>
+      </c>
+      <c r="E627" t="n">
+        <v>361.1028571428572</v>
+      </c>
+      <c r="F627" t="n">
+        <v>382.3</v>
+      </c>
+      <c r="G627" t="n">
+        <v>355.49</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>335.5833333333333</v>
+      </c>
+      <c r="C628" t="n">
+        <v>344.8729411764706</v>
+      </c>
+      <c r="D628" t="n">
+        <v>362.9371428571428</v>
+      </c>
+      <c r="E628" t="n">
+        <v>363.8771428571428</v>
+      </c>
+      <c r="F628" t="n">
+        <v>387.77</v>
+      </c>
+      <c r="G628" t="n">
+        <v>363.8233333333333</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B653"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24243,6 +24303,26 @@
       </c>
       <c r="B653" t="n">
         <v>-0.77</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -24416,28 +24496,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1190630498148831</v>
+        <v>0.1005643995571358</v>
       </c>
       <c r="J2" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K2" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007968282537960447</v>
+        <v>0.005617362408563364</v>
       </c>
       <c r="M2" t="n">
-        <v>7.865098200150329</v>
+        <v>7.933059211844286</v>
       </c>
       <c r="N2" t="n">
-        <v>100.9889562892651</v>
+        <v>102.9032282283688</v>
       </c>
       <c r="O2" t="n">
-        <v>10.04932616095552</v>
+        <v>10.14412284174284</v>
       </c>
       <c r="P2" t="n">
-        <v>359.6310390298897</v>
+        <v>359.8100891838398</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24494,28 +24574,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.222418794503077</v>
+        <v>0.2121014520180589</v>
       </c>
       <c r="J3" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K3" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02734835476959696</v>
+        <v>0.02495263088737187</v>
       </c>
       <c r="M3" t="n">
-        <v>7.738700344960465</v>
+        <v>7.757753075909355</v>
       </c>
       <c r="N3" t="n">
-        <v>100.5331634957598</v>
+        <v>100.8653114672357</v>
       </c>
       <c r="O3" t="n">
-        <v>10.02662273628363</v>
+        <v>10.04317238063928</v>
       </c>
       <c r="P3" t="n">
-        <v>352.5490657065755</v>
+        <v>352.6502629451523</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24572,28 +24652,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2943837493101333</v>
+        <v>0.2867683557183022</v>
       </c>
       <c r="J4" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K4" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05156935121685779</v>
+        <v>0.04921537527109188</v>
       </c>
       <c r="M4" t="n">
-        <v>7.592213824559004</v>
+        <v>7.597522907141093</v>
       </c>
       <c r="N4" t="n">
-        <v>92.8014902204109</v>
+        <v>92.86714553381904</v>
       </c>
       <c r="O4" t="n">
-        <v>9.633353010266514</v>
+        <v>9.63676011602546</v>
       </c>
       <c r="P4" t="n">
-        <v>363.7285472950457</v>
+        <v>363.8025923310832</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24650,28 +24730,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2030117013009124</v>
+        <v>0.1923518208448562</v>
       </c>
       <c r="J5" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K5" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0215904994818491</v>
+        <v>0.01943746458870299</v>
       </c>
       <c r="M5" t="n">
-        <v>7.935716199182957</v>
+        <v>7.962192937788383</v>
       </c>
       <c r="N5" t="n">
-        <v>107.4243667360973</v>
+        <v>107.8061635299385</v>
       </c>
       <c r="O5" t="n">
-        <v>10.36457267503573</v>
+        <v>10.38297469562256</v>
       </c>
       <c r="P5" t="n">
-        <v>371.5162461087791</v>
+        <v>371.6198718688904</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24728,28 +24808,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2204991090184957</v>
+        <v>0.2194402608458649</v>
       </c>
       <c r="J6" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K6" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03313719152867989</v>
+        <v>0.03307399243024933</v>
       </c>
       <c r="M6" t="n">
-        <v>6.776521567160826</v>
+        <v>6.760695631408267</v>
       </c>
       <c r="N6" t="n">
-        <v>80.29898845381818</v>
+        <v>80.02067945891349</v>
       </c>
       <c r="O6" t="n">
-        <v>8.960970285288205</v>
+        <v>8.945427852199888</v>
       </c>
       <c r="P6" t="n">
-        <v>380.7456465816866</v>
+        <v>380.7560544808668</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24806,28 +24886,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1518912850196479</v>
+        <v>0.1482995173899968</v>
       </c>
       <c r="J7" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K7" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01330413174415868</v>
+        <v>0.01277654251138938</v>
       </c>
       <c r="M7" t="n">
-        <v>7.532365940666081</v>
+        <v>7.522181183629666</v>
       </c>
       <c r="N7" t="n">
-        <v>96.73407870343097</v>
+        <v>96.50330874383445</v>
       </c>
       <c r="O7" t="n">
-        <v>9.835348428166181</v>
+        <v>9.823609761377661</v>
       </c>
       <c r="P7" t="n">
-        <v>360.3971909033509</v>
+        <v>360.4322521754712</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24865,7 +24945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H626"/>
+  <dimension ref="A1:H628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48097,6 +48177,90 @@
         </is>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.309754699102214,174.79475732143385</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-36.31047887727124,174.79480488934362</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-36.31119687007694,174.79500231610027</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.311914479579336,174.79512692621915</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-36.31254994243416,174.795577834606</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-36.313304740277914,174.79559156314932</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.309756792966695,174.79468402099758</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.31047875653345,174.7948083053845</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.31119378472435,174.79504484319202</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.31190957210738,174.79515721932876</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-36.312534905240284,174.7956358453472</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-36.31327893374975,174.79567871319298</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H628"/>
+  <dimension ref="A1:H632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17751,6 +17751,126 @@
       <c r="H628" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>352.44</v>
+      </c>
+      <c r="C629" t="n">
+        <v>347.7111764705882</v>
+      </c>
+      <c r="D629" t="n">
+        <v>362.4242857142857</v>
+      </c>
+      <c r="E629" t="n">
+        <v>369.1442857142857</v>
+      </c>
+      <c r="F629" t="n">
+        <v>392.23</v>
+      </c>
+      <c r="G629" t="n">
+        <v>370.06</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>353.8866666666667</v>
+      </c>
+      <c r="C630" t="n">
+        <v>347.3235294117647</v>
+      </c>
+      <c r="D630" t="n">
+        <v>357.95</v>
+      </c>
+      <c r="E630" t="n">
+        <v>366.41</v>
+      </c>
+      <c r="F630" t="n">
+        <v>384.18</v>
+      </c>
+      <c r="G630" t="n">
+        <v>359.3466666666667</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>354.1566666666667</v>
+      </c>
+      <c r="C631" t="n">
+        <v>349.3017647058824</v>
+      </c>
+      <c r="D631" t="n">
+        <v>356.6014285714285</v>
+      </c>
+      <c r="E631" t="n">
+        <v>366.2914285714286</v>
+      </c>
+      <c r="F631" t="n">
+        <v>380.01</v>
+      </c>
+      <c r="G631" t="n">
+        <v>364.1866666666667</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>355.06</v>
+      </c>
+      <c r="C632" t="n">
+        <v>348.93</v>
+      </c>
+      <c r="D632" t="n">
+        <v>364.7242857142857</v>
+      </c>
+      <c r="E632" t="n">
+        <v>374.8542857142857</v>
+      </c>
+      <c r="F632" t="n">
+        <v>380.65</v>
+      </c>
+      <c r="G632" t="n">
+        <v>365</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17765,7 +17885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24323,6 +24443,46 @@
       </c>
       <c r="B655" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -24496,28 +24656,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1005643995571358</v>
+        <v>0.08757144954385979</v>
       </c>
       <c r="J2" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K2" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005617362408563364</v>
+        <v>0.004313589001813889</v>
       </c>
       <c r="M2" t="n">
-        <v>7.933059211844286</v>
+        <v>7.940005819535938</v>
       </c>
       <c r="N2" t="n">
-        <v>102.9032282283688</v>
+        <v>102.6533496754197</v>
       </c>
       <c r="O2" t="n">
-        <v>10.14412284174284</v>
+        <v>10.13179893579712</v>
       </c>
       <c r="P2" t="n">
-        <v>359.8100891838398</v>
+        <v>359.9362382177727</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24574,28 +24734,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2121014520180589</v>
+        <v>0.1974321302263077</v>
       </c>
       <c r="J3" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K3" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02495263088737187</v>
+        <v>0.02187634491555823</v>
       </c>
       <c r="M3" t="n">
-        <v>7.757753075909355</v>
+        <v>7.767574989245992</v>
       </c>
       <c r="N3" t="n">
-        <v>100.8653114672357</v>
+        <v>100.8193040123054</v>
       </c>
       <c r="O3" t="n">
-        <v>10.04317238063928</v>
+        <v>10.0408816352104</v>
       </c>
       <c r="P3" t="n">
-        <v>352.6502629451523</v>
+        <v>352.7946127308124</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24652,28 +24812,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2867683557183022</v>
+        <v>0.2710950900991906</v>
       </c>
       <c r="J4" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K4" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04921537527109188</v>
+        <v>0.04442336418107673</v>
       </c>
       <c r="M4" t="n">
-        <v>7.597522907141093</v>
+        <v>7.610681888078342</v>
       </c>
       <c r="N4" t="n">
-        <v>92.86714553381904</v>
+        <v>93.12484129311828</v>
       </c>
       <c r="O4" t="n">
-        <v>9.63676011602546</v>
+        <v>9.650121309761774</v>
       </c>
       <c r="P4" t="n">
-        <v>363.8025923310832</v>
+        <v>363.9554956381313</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24730,28 +24890,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1923518208448562</v>
+        <v>0.1814521816903327</v>
       </c>
       <c r="J5" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K5" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01943746458870299</v>
+        <v>0.01752696362219852</v>
       </c>
       <c r="M5" t="n">
-        <v>7.962192937788383</v>
+        <v>7.958536912738548</v>
       </c>
       <c r="N5" t="n">
-        <v>107.8061635299385</v>
+        <v>107.4766878394697</v>
       </c>
       <c r="O5" t="n">
-        <v>10.38297469562256</v>
+        <v>10.36709640350034</v>
       </c>
       <c r="P5" t="n">
-        <v>371.6198718688904</v>
+        <v>371.7261538960665</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24808,28 +24968,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2194402608458649</v>
+        <v>0.2162295154014597</v>
       </c>
       <c r="J6" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K6" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03307399243024933</v>
+        <v>0.0325593744854854</v>
       </c>
       <c r="M6" t="n">
-        <v>6.760695631408267</v>
+        <v>6.747572229341382</v>
       </c>
       <c r="N6" t="n">
-        <v>80.02067945891349</v>
+        <v>79.61773041605727</v>
       </c>
       <c r="O6" t="n">
-        <v>8.945427852199888</v>
+        <v>8.922876801573429</v>
       </c>
       <c r="P6" t="n">
-        <v>380.7560544808668</v>
+        <v>380.78776777734</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24886,28 +25046,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1482995173899968</v>
+        <v>0.1488492115529187</v>
       </c>
       <c r="J7" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K7" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01277654251138938</v>
+        <v>0.01306903641190016</v>
       </c>
       <c r="M7" t="n">
-        <v>7.522181183629666</v>
+        <v>7.485238651195031</v>
       </c>
       <c r="N7" t="n">
-        <v>96.50330874383445</v>
+        <v>95.85435047580597</v>
       </c>
       <c r="O7" t="n">
-        <v>9.823609761377661</v>
+        <v>9.790523503664447</v>
       </c>
       <c r="P7" t="n">
-        <v>360.4322521754712</v>
+        <v>360.4268894725928</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24945,7 +25105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H628"/>
+  <dimension ref="A1:H632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48261,6 +48421,174 @@
         </is>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.30975143423714,174.79487161223403</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-36.31047764051392,174.79483988085732</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-36.31119419740838,174.79503915495607</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.311900254965444,174.7952147325487</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-36.31252264454626,174.79568314476418</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-36.313259620103445,174.79574393624654</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.30975097432853,174.7948877116186</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.310477792940695,174.7948355682695</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.31119779774894,174.79498952945156</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.3119050916951,174.79518487621667</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-36.31254477426094,174.79559777248676</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-36.31329279702439,174.79563189619694</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-36.309750888492815,174.7948907163424</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-36.31047701507673,174.79485757620986</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-36.31119888290503,174.7949745720826</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-36.311905301438166,174.79518358150625</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-36.31255623770457,174.79555354856663</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-36.313277808583706,174.79568251293352</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-36.30975060131351,174.79490076918373</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-36.31047716125903,174.7948534403139</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-36.311192346650635,174.79506466487166</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-36.31189015441484,174.79527708141723</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-36.31255447832817,174.79556033593175</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-36.313275289862965,174.7956910187743</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H632"/>
+  <dimension ref="A1:H634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17869,6 +17869,66 @@
         <v>365</v>
       </c>
       <c r="H632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>345.5333333333333</v>
+      </c>
+      <c r="C633" t="n">
+        <v>343.0788235294117</v>
+      </c>
+      <c r="D633" t="n">
+        <v>353.28</v>
+      </c>
+      <c r="E633" t="n">
+        <v>362.21</v>
+      </c>
+      <c r="F633" t="n">
+        <v>371.11</v>
+      </c>
+      <c r="G633" t="n">
+        <v>351.7133333333333</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>360.4766666666667</v>
+      </c>
+      <c r="C634" t="n">
+        <v>351.075294117647</v>
+      </c>
+      <c r="D634" t="n">
+        <v>363.9528571428572</v>
+      </c>
+      <c r="E634" t="n">
+        <v>379.3628571428572</v>
+      </c>
+      <c r="F634" t="n">
+        <v>385.86</v>
+      </c>
+      <c r="G634" t="n">
+        <v>362.7166666666667</v>
+      </c>
+      <c r="H634" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17885,7 +17945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24483,6 +24543,26 @@
       </c>
       <c r="B659" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -24656,28 +24736,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08757144954385979</v>
+        <v>0.0806143361841412</v>
       </c>
       <c r="J2" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004313589001813889</v>
+        <v>0.003668475104712132</v>
       </c>
       <c r="M2" t="n">
-        <v>7.940005819535938</v>
+        <v>7.946418450172907</v>
       </c>
       <c r="N2" t="n">
-        <v>102.6533496754197</v>
+        <v>102.8016492627437</v>
       </c>
       <c r="O2" t="n">
-        <v>10.13179893579712</v>
+        <v>10.1391148165283</v>
       </c>
       <c r="P2" t="n">
-        <v>359.9362382177727</v>
+        <v>360.0039549825656</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24734,28 +24814,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1974321302263077</v>
+        <v>0.1893872389638935</v>
       </c>
       <c r="J3" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K3" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02187634491555823</v>
+        <v>0.02021983560950535</v>
       </c>
       <c r="M3" t="n">
-        <v>7.767574989245992</v>
+        <v>7.776509169032064</v>
       </c>
       <c r="N3" t="n">
-        <v>100.8193040123054</v>
+        <v>100.945873152215</v>
       </c>
       <c r="O3" t="n">
-        <v>10.0408816352104</v>
+        <v>10.04718234890833</v>
       </c>
       <c r="P3" t="n">
-        <v>352.7946127308124</v>
+        <v>352.8740362420363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24812,28 +24892,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2710950900991906</v>
+        <v>0.2621706340878414</v>
       </c>
       <c r="J4" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K4" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04442336418107673</v>
+        <v>0.0416702312288858</v>
       </c>
       <c r="M4" t="n">
-        <v>7.610681888078342</v>
+        <v>7.622904103670387</v>
       </c>
       <c r="N4" t="n">
-        <v>93.12484129311828</v>
+        <v>93.47126225470963</v>
       </c>
       <c r="O4" t="n">
-        <v>9.650121309761774</v>
+        <v>9.668053695274434</v>
       </c>
       <c r="P4" t="n">
-        <v>363.9554956381313</v>
+        <v>364.0428462388284</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24890,28 +24970,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1814521816903327</v>
+        <v>0.1773402515845991</v>
       </c>
       <c r="J5" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K5" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01752696362219852</v>
+        <v>0.01682290664005248</v>
       </c>
       <c r="M5" t="n">
-        <v>7.958536912738548</v>
+        <v>7.961312992059238</v>
       </c>
       <c r="N5" t="n">
-        <v>107.4766878394697</v>
+        <v>107.4675341201794</v>
       </c>
       <c r="O5" t="n">
-        <v>10.36709640350034</v>
+        <v>10.36665491468581</v>
       </c>
       <c r="P5" t="n">
-        <v>371.7261538960665</v>
+        <v>371.7663095865208</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24968,28 +25048,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2162295154014597</v>
+        <v>0.2104606088576713</v>
       </c>
       <c r="J6" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K6" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0325593744854854</v>
+        <v>0.03096589005757233</v>
       </c>
       <c r="M6" t="n">
-        <v>6.747572229341382</v>
+        <v>6.752149827672818</v>
       </c>
       <c r="N6" t="n">
-        <v>79.61773041605727</v>
+        <v>79.76079878683963</v>
       </c>
       <c r="O6" t="n">
-        <v>8.922876801573429</v>
+        <v>8.930890145267695</v>
       </c>
       <c r="P6" t="n">
-        <v>380.78776777734</v>
+        <v>380.8447902285028</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25046,28 +25126,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1488492115529187</v>
+        <v>0.1435435830121435</v>
       </c>
       <c r="J7" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K7" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01306903641190016</v>
+        <v>0.0122251856064024</v>
       </c>
       <c r="M7" t="n">
-        <v>7.485238651195031</v>
+        <v>7.485113118361941</v>
       </c>
       <c r="N7" t="n">
-        <v>95.85435047580597</v>
+        <v>95.79112439508663</v>
       </c>
       <c r="O7" t="n">
-        <v>9.790523503664447</v>
+        <v>9.787294028233065</v>
       </c>
       <c r="P7" t="n">
-        <v>360.4268894725928</v>
+        <v>360.4789741373072</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25105,7 +25185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H632"/>
+  <dimension ref="A1:H634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48589,6 +48669,90 @@
         </is>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-36.30975362990005,174.79479475065236</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-36.310479461992294,174.79478834575852</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-36.31120155555379,174.79493773322153</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-36.31191252114009,174.79513901538542</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-36.31258070399346,174.79545916173723</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-36.313316435776045,174.7955520667298</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-36.30974887927965,174.794961049134</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-36.310476317701934,174.79487730678923</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-36.31119296740229,174.79505610875106</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-36.311882179076235,174.79532631158483</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-36.31254015589064,174.79561558931408</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-36.31328236086025,174.7956671396706</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H634"/>
+  <dimension ref="A1:H635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17931,6 +17931,36 @@
       <c r="H634" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>352.0266666666667</v>
+      </c>
+      <c r="C635" t="n">
+        <v>345.3329411764706</v>
+      </c>
+      <c r="D635" t="n">
+        <v>362.4142857142857</v>
+      </c>
+      <c r="E635" t="n">
+        <v>365.6742857142857</v>
+      </c>
+      <c r="F635" t="n">
+        <v>379.4</v>
+      </c>
+      <c r="G635" t="n">
+        <v>361.5466666666667</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B661"/>
+  <dimension ref="A1:B662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24563,6 +24593,16 @@
       </c>
       <c r="B661" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -25185,7 +25225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H634"/>
+  <dimension ref="A1:H635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48753,6 +48793,48 @@
         </is>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-36.30975156563921,174.79486701240984</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-36.31047857565789,174.79481342290163</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-36.31119420545514,174.7950390440434</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-36.31190639311273,174.7951768427724</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-36.31255791460985,174.79554707935895</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-36.3132859840994,174.795654903807</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -24776,28 +24776,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0806143361841412</v>
+        <v>0.07680997503970853</v>
       </c>
       <c r="J2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K2" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003668475104712132</v>
+        <v>0.003338828346605371</v>
       </c>
       <c r="M2" t="n">
-        <v>7.946418450172907</v>
+        <v>7.951412378459059</v>
       </c>
       <c r="N2" t="n">
-        <v>102.8016492627437</v>
+        <v>102.7979474228605</v>
       </c>
       <c r="O2" t="n">
-        <v>10.1391148165283</v>
+        <v>10.13893226246534</v>
       </c>
       <c r="P2" t="n">
-        <v>360.0039549825656</v>
+        <v>360.0410988366827</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24854,28 +24854,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1893872389638935</v>
+        <v>0.18477152737474</v>
       </c>
       <c r="J3" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K3" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02021983560950535</v>
+        <v>0.01928259118269982</v>
       </c>
       <c r="M3" t="n">
-        <v>7.776509169032064</v>
+        <v>7.783869973800098</v>
       </c>
       <c r="N3" t="n">
-        <v>100.945873152215</v>
+        <v>101.0535130591658</v>
       </c>
       <c r="O3" t="n">
-        <v>10.04718234890833</v>
+        <v>10.05253764276294</v>
       </c>
       <c r="P3" t="n">
-        <v>352.8740362420363</v>
+        <v>352.9197153903947</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24932,28 +24932,28 @@
         <v>0.0791</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2621706340878414</v>
+        <v>0.2591280895181281</v>
       </c>
       <c r="J4" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K4" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0416702312288858</v>
+        <v>0.04084025051731277</v>
       </c>
       <c r="M4" t="n">
-        <v>7.622904103670387</v>
+        <v>7.622278970241176</v>
       </c>
       <c r="N4" t="n">
-        <v>93.47126225470963</v>
+        <v>93.42706690821551</v>
       </c>
       <c r="O4" t="n">
-        <v>9.668053695274434</v>
+        <v>9.665767786793531</v>
       </c>
       <c r="P4" t="n">
-        <v>364.0428462388284</v>
+        <v>364.0727036512606</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25010,28 +25010,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1773402515845991</v>
+        <v>0.1734428376256946</v>
       </c>
       <c r="J5" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K5" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01682290664005248</v>
+        <v>0.0161332621701139</v>
       </c>
       <c r="M5" t="n">
-        <v>7.961312992059238</v>
+        <v>7.967121526870458</v>
       </c>
       <c r="N5" t="n">
-        <v>107.4675341201794</v>
+        <v>107.4805923549986</v>
       </c>
       <c r="O5" t="n">
-        <v>10.36665491468581</v>
+        <v>10.36728471466847</v>
       </c>
       <c r="P5" t="n">
-        <v>371.7663095865208</v>
+        <v>371.8045356193958</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25088,28 +25088,28 @@
         <v>0.0534</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2104606088576713</v>
+        <v>0.2079395002068372</v>
       </c>
       <c r="J6" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K6" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03096589005757233</v>
+        <v>0.03033271866170661</v>
       </c>
       <c r="M6" t="n">
-        <v>6.752149827672818</v>
+        <v>6.752431213640123</v>
       </c>
       <c r="N6" t="n">
-        <v>79.76079878683963</v>
+        <v>79.69877193528029</v>
       </c>
       <c r="O6" t="n">
-        <v>8.930890145267695</v>
+        <v>8.927416868012847</v>
       </c>
       <c r="P6" t="n">
-        <v>380.8447902285028</v>
+        <v>380.8697920652798</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25166,28 +25166,28 @@
         <v>0.0624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1435435830121435</v>
+        <v>0.142543084180904</v>
       </c>
       <c r="J7" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K7" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0122251856064024</v>
+        <v>0.0121047994140786</v>
       </c>
       <c r="M7" t="n">
-        <v>7.485113118361941</v>
+        <v>7.475882150311897</v>
       </c>
       <c r="N7" t="n">
-        <v>95.79112439508663</v>
+        <v>95.6165498359896</v>
       </c>
       <c r="O7" t="n">
-        <v>9.787294028233065</v>
+        <v>9.778371532928661</v>
       </c>
       <c r="P7" t="n">
-        <v>360.4789741373072</v>
+        <v>360.4888252237639</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0123/nzd0123.xlsx
+++ b/data/nzd0123/nzd0123.xlsx
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.056</v>
+        <v>0.0512</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.0653</v>
       </c>
       <c r="I2" t="n">
         <v>0.07682251038387496</v>
@@ -24845,13 +24845,13 @@
         <v>0.2005997237570401</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0743</v>
+        <v>0.0688</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0939</v>
+        <v>0.095</v>
       </c>
       <c r="I3" t="n">
         <v>0.1847573217759205</v>
@@ -24923,13 +24923,13 @@
         <v>0.4010736073026592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0626</v>
+        <v>0.0843</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0791</v>
+        <v>0.1103</v>
       </c>
       <c r="I4" t="n">
         <v>0.2591172180860538</v>
@@ -25001,13 +25001,13 @@
         <v>0.6016733310591263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0649</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08</v>
+        <v>0.0921</v>
       </c>
       <c r="I5" t="n">
         <v>0.173421893160187</v>
@@ -25079,13 +25079,13 @@
         <v>0.8004325526097043</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0488</v>
+        <v>0.0496</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0534</v>
+        <v>0.0588</v>
       </c>
       <c r="I6" t="n">
         <v>0.2079395002068373</v>
@@ -25160,10 +25160,10 @@
         <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0538</v>
+        <v>0.0542</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0624</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>0.1425689465037227</v>
